--- a/evaluation/results/isolation_forest/augmented/shift_4/split_2/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/shift_4/split_2/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9163701067615658</v>
+        <v>0.2775800711743772</v>
       </c>
       <c r="C2">
-        <v>0.2978723404255319</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E2">
-        <v>0.3733333333333334</v>
+        <v>0.1135371179039301</v>
       </c>
       <c r="F2">
-        <v>0.440251572327044</v>
+        <v>0.2398523985239852</v>
       </c>
       <c r="G2">
-        <v>0.4872824631860777</v>
+        <v>0.5982300884955752</v>
       </c>
       <c r="H2">
-        <v>0.7191011235955056</v>
+        <v>0.8187533440342428</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>404</v>
       </c>
       <c r="K2">
-        <v>501</v>
+        <v>130</v>
       </c>
       <c r="L2">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9728155339805825</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="C2">
-        <v>0.9382022471910112</v>
+        <v>0.2434456928838951</v>
       </c>
       <c r="D2">
-        <v>0.9551954242135366</v>
+        <v>0.3903903903903904</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.2978723404255319</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="D3">
-        <v>0.3733333333333334</v>
+        <v>0.1135371179039301</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9163701067615658</v>
+        <v>0.2775800711743772</v>
       </c>
       <c r="C4">
-        <v>0.9163701067615658</v>
+        <v>0.2775800711743772</v>
       </c>
       <c r="D4">
-        <v>0.9163701067615658</v>
+        <v>0.2775800711743772</v>
       </c>
       <c r="E4">
-        <v>0.9163701067615658</v>
+        <v>0.2775800711743772</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6353439372030572</v>
+        <v>0.5226568005637773</v>
       </c>
       <c r="C5">
-        <v>0.7191011235955056</v>
+        <v>0.5860085607276618</v>
       </c>
       <c r="D5">
-        <v>0.664264378773435</v>
+        <v>0.2519637541471603</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9391884709564875</v>
+        <v>0.9387937974464499</v>
       </c>
       <c r="C6">
-        <v>0.9163701067615658</v>
+        <v>0.2775800711743772</v>
       </c>
       <c r="D6">
-        <v>0.9262058538493985</v>
+        <v>0.3765969889141966</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>501</v>
+        <v>130</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
